--- a/01_ping/output.xlsx
+++ b/01_ping/output.xlsx
@@ -324,6 +324,11 @@
     <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="10"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -344,7 +349,7 @@
         <v>http://127.0.0.1:8000</v>
       </c>
       <c r="C2" t="str">
-        <v>Up</v>
+        <v>Down</v>
       </c>
     </row>
     <row r="3">
@@ -362,9 +367,7 @@
       <c r="A4" t="str">
         <v>127.0.0.1</v>
       </c>
-      <c r="B4" t="str">
-        <v>http://127.0.0.1:5000</v>
-      </c>
+      <c r="B4" t="str"/>
       <c r="C4" t="str">
         <v>Down</v>
       </c>
